--- a/before-changes/Analyses/Audit-SEO-La-Chouette-Agence.xlsx
+++ b/before-changes/Analyses/Audit-SEO-La-Chouette-Agence.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\openclassrooms\projet-4\Starting website\Analyses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\openclassrooms\NoureddineEchakouri_4_20102021\before-changes\Analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663073E5-3F84-4004-AA04-34B5A488ED17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F038119-0901-4332-8BDB-769146241938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
   <si>
     <t>Catégorie</t>
   </si>
@@ -131,13 +131,6 @@
   </si>
   <si>
     <t>Vérifier que le code est en norme avec le validateur W3C</t>
-  </si>
-  <si>
-    <t>15 erreurs CSS</t>
-  </si>
-  <si>
-    <t>corriger les 15 erreurs
-CSS</t>
   </si>
   <si>
     <t>Titre</t>
@@ -436,6 +429,16 @@
   </si>
   <si>
     <t>retirer la div qui comporte des mots clés blanc sur blanc</t>
+  </si>
+  <si>
+    <t>SEO V</t>
+  </si>
+  <si>
+    <t>8 erreurs CSS</t>
+  </si>
+  <si>
+    <t>corriger les 8 erreurs
+CSS</t>
   </si>
 </sst>
 </file>
@@ -792,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -847,13 +850,13 @@
     </row>
     <row r="2" spans="1:26" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>8</v>
@@ -873,7 +876,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
@@ -893,10 +896,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>16</v>
@@ -911,7 +914,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>18</v>
@@ -926,16 +929,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E6" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -947,10 +950,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>22</v>
@@ -968,10 +971,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -980,16 +983,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="E9" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="F9" s="6"/>
     </row>
@@ -998,16 +1001,16 @@
         <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="E10" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -1016,16 +1019,16 @@
         <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="E11" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="F11" s="6"/>
     </row>
@@ -1034,16 +1037,16 @@
         <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E12" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F12" s="6"/>
     </row>
@@ -1052,52 +1055,52 @@
         <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="E13" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -1106,16 +1109,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="E16" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="F16" s="5"/>
     </row>
@@ -1124,16 +1127,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -1142,16 +1145,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="F18" s="5"/>
     </row>
@@ -1160,16 +1163,16 @@
         <v>6</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="F19" s="5"/>
     </row>
@@ -1178,16 +1181,16 @@
         <v>20</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="F20" s="5"/>
     </row>
@@ -1196,16 +1199,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -1214,16 +1217,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="D22" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -1232,16 +1235,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/before-changes/Analyses/Audit-SEO-La-Chouette-Agence.xlsx
+++ b/before-changes/Analyses/Audit-SEO-La-Chouette-Agence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\openclassrooms\NoureddineEchakouri_4_20102021\before-changes\Analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F038119-0901-4332-8BDB-769146241938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEA4F09-C6D5-4012-A388-D7E13D8E5B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
   <si>
     <t>Catégorie</t>
   </si>
@@ -92,12 +92,6 @@
   <si>
     <t>La taille des ressources
 Javascript</t>
-  </si>
-  <si>
-    <t>Minifier (réduire) les
-ressources Javascript
-avec un outil comme
-Compress my code</t>
   </si>
   <si>
     <t>La taille des fichiers CSS</t>
@@ -203,11 +197,6 @@
     <t>la balise header</t>
   </si>
   <si>
-    <t>la balise header est
-importante pour le
-référencement</t>
-  </si>
-  <si>
     <t>utiliser la balise header</t>
   </si>
   <si>
@@ -225,9 +214,6 @@
     <t>absence de la balise footer pour le pied de page</t>
   </si>
   <si>
-    <t>utiliser la balise footer pour le pied de page</t>
-  </si>
-  <si>
     <t>la meta description</t>
   </si>
   <si>
@@ -263,12 +249,6 @@
   </si>
   <si>
     <t>Code JS au début</t>
-  </si>
-  <si>
-    <t>les balises Javascript sont mises au début, ça peut affecter considérablement le chargement de la page</t>
-  </si>
-  <si>
-    <t>mettre les balises JS à la fin du body ou rajouter l'attribut async</t>
   </si>
   <si>
     <t xml:space="preserve">déplacer les balises JS en fin du body </t>
@@ -323,14 +303,6 @@
 de contact</t>
   </si>
   <si>
-    <t>Souligner le lien de la
-page active avec la
-balise &lt;u&gt; pour 
-spécifier à l'utilisateur
-dans quelle page il se
-trouve</t>
-  </si>
-  <si>
     <t>Formulaire de contact</t>
   </si>
   <si>
@@ -347,10 +319,6 @@
   <si>
     <t>aucun suivi de site via Google analytics
 n'est configuré</t>
-  </si>
-  <si>
-    <t>Le format de structure du CSS n'est pas nécessaire à la bonne exécution par les navigateurs, le format
-minifié suffit</t>
   </si>
   <si>
     <t>Aucun placeholder dans
@@ -395,9 +363,6 @@
 trop importante dont on n'a pas besoin</t>
   </si>
   <si>
-    <t>Google reconnait parfaitement les liens dans le footer et les sidebar, ils perdent alors d'importance pour le référencement google</t>
-  </si>
-  <si>
     <t>Le délai chargement du
 Javascript fait partie des
 problèmes qui ralentissent le chargement de la page</t>
@@ -425,9 +390,6 @@
     <t xml:space="preserve">la div qui comporte des mots clés blanc sur fond blanc c'est une technique spamdexing qui peut être punie par google </t>
   </si>
   <si>
-    <t xml:space="preserve">mettre les mots clés dans des emplacements de qualité comme dans un article par exemple </t>
-  </si>
-  <si>
     <t>retirer la div qui comporte des mots clés blanc sur blanc</t>
   </si>
   <si>
@@ -439,6 +401,51 @@
   <si>
     <t>corriger les 8 erreurs
 CSS</t>
+  </si>
+  <si>
+    <t>Google reconnait parfaitement la mauvaise qualité des liens dans le footer</t>
+  </si>
+  <si>
+    <t>Le format normal du CSS n'est pas nécessaire à la bonne exécution par les navigateurs, le format
+minifié suffit</t>
+  </si>
+  <si>
+    <t>les balises Javascript sont mises au début, ça peut poser des problèmres d'exécution</t>
+  </si>
+  <si>
+    <t>mettre les balises JS à la fin de la balise body ou rajouter l'attribut defer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mettre les mots clés dans des emplacements de qualité comme dans le texte d'un article par exemple </t>
+  </si>
+  <si>
+    <t>la balise header est
+importante d'un point de vue sémantique</t>
+  </si>
+  <si>
+    <t>utiliser la balise pour la semantique de la page</t>
+  </si>
+  <si>
+    <t>Souligner le lien de la
+page active avec du css text-decoration: underline pour 
+spécifier à l'utilisateur
+dans quelle page il se
+trouve</t>
+  </si>
+  <si>
+    <t>Minifier (réduire) les
+ressources Javascript
+avec un outil comme
+giftofspeed</t>
+  </si>
+  <si>
+    <t>https://blog.dareboost.com/fr/2014/07/la-minification-css/</t>
+  </si>
+  <si>
+    <t>https://www.tanaguru.com/contrastes-couleurs-regles-accessibilite/</t>
+  </si>
+  <si>
+    <t>https://smartkeyword.io/seo-technique-seo-balise-meta-robots/</t>
   </si>
 </sst>
 </file>
@@ -523,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -576,6 +583,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -795,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -850,13 +860,13 @@
     </row>
     <row r="2" spans="1:26" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>8</v>
@@ -876,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
@@ -896,13 +906,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -911,70 +921,72 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="13" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -983,124 +995,126 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="13" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E12" s="12" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>96</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -1109,34 +1123,34 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -1145,16 +1159,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F18" s="5"/>
     </row>
@@ -1163,52 +1177,54 @@
         <v>6</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -1217,16 +1233,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -1235,16 +1251,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2274,8 +2290,11 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{F858BD2F-31DB-4F30-A034-26A9998C7CE5}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{E73EF454-E75F-4BDB-B544-4B071CAAB9D6}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{9D5317E7-B8AC-467B-BE28-6BBFB04AAA2A}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{B73F803D-7CDD-411F-B738-403A870B79C3}"/>
+    <hyperlink ref="F19" r:id="rId5" xr:uid="{4193933D-0FD5-4E4A-9907-1870C5F1BA41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId3"/>
+  <pageSetup orientation="landscape" r:id="rId6"/>
 </worksheet>
 </file>